--- a/SNPversity/maize_accessions.xlsx
+++ b/SNPversity/maize_accessions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carsonandorf/Sites/WGS_workflow/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/WGS_workflow/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE5034E4-3582-2346-B38E-4EE9F2F74FA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82433507-2E4C-8C4C-BCED-307D7C4CC29A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3840" yWindow="3120" windowWidth="27640" windowHeight="16940" xr2:uid="{71238682-7C70-0F4A-814A-F358E34F0A8B}"/>
+    <workbookView xWindow="860" yWindow="2240" windowWidth="27640" windowHeight="16940" xr2:uid="{71238682-7C70-0F4A-814A-F358E34F0A8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5592" uniqueCount="4094">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5700" uniqueCount="4193">
   <si>
     <t>BioProject</t>
   </si>
@@ -12318,6 +12318,303 @@
   </si>
   <si>
     <t>PRJNA531553</t>
+  </si>
+  <si>
+    <t>B73_ISU</t>
+  </si>
+  <si>
+    <t>ERS3371164</t>
+  </si>
+  <si>
+    <t>B73_ERS3371164</t>
+  </si>
+  <si>
+    <t>B73_Ab10_ISU</t>
+  </si>
+  <si>
+    <t>ERS4036196</t>
+  </si>
+  <si>
+    <t>B73Ab10</t>
+  </si>
+  <si>
+    <t>B73Ab10_ERS4036196</t>
+  </si>
+  <si>
+    <t>B97_ISU</t>
+  </si>
+  <si>
+    <t>ERS3120542</t>
+  </si>
+  <si>
+    <t>B97_ERS3120542</t>
+  </si>
+  <si>
+    <t>CML103_ISU</t>
+  </si>
+  <si>
+    <t>ERS3120545</t>
+  </si>
+  <si>
+    <t>CML103_ERS3120545</t>
+  </si>
+  <si>
+    <t>CML228_ISU</t>
+  </si>
+  <si>
+    <t>ERS3120546</t>
+  </si>
+  <si>
+    <t>CML228_ERS3120546</t>
+  </si>
+  <si>
+    <t>CML247_ISU</t>
+  </si>
+  <si>
+    <t>ERS3120547</t>
+  </si>
+  <si>
+    <t>CML247</t>
+  </si>
+  <si>
+    <t>CML247_ERS3120547</t>
+  </si>
+  <si>
+    <t>CML277_ISU</t>
+  </si>
+  <si>
+    <t>ERS3120548</t>
+  </si>
+  <si>
+    <t>CML277</t>
+  </si>
+  <si>
+    <t>CML277_ERS3120548</t>
+  </si>
+  <si>
+    <t>CML322_ISU</t>
+  </si>
+  <si>
+    <t>ERS3120549</t>
+  </si>
+  <si>
+    <t>CML322_ERS3120549</t>
+  </si>
+  <si>
+    <t>CML333_ISU</t>
+  </si>
+  <si>
+    <t>ERS3120550</t>
+  </si>
+  <si>
+    <t>CML333_ERS3120550</t>
+  </si>
+  <si>
+    <t>CML52_ISU</t>
+  </si>
+  <si>
+    <t>ERS3120543</t>
+  </si>
+  <si>
+    <t>CML52_ERS3120543</t>
+  </si>
+  <si>
+    <t>CML69_ISU</t>
+  </si>
+  <si>
+    <t>ERS3120544</t>
+  </si>
+  <si>
+    <t>CML69_ERS3120544</t>
+  </si>
+  <si>
+    <t>HP301_ISU</t>
+  </si>
+  <si>
+    <t>ERS3120551</t>
+  </si>
+  <si>
+    <t>Hp301</t>
+  </si>
+  <si>
+    <t>Hp301_ERS3120551</t>
+  </si>
+  <si>
+    <t>IL14H_ISU</t>
+  </si>
+  <si>
+    <t>ERS3120552</t>
+  </si>
+  <si>
+    <t>Il14H</t>
+  </si>
+  <si>
+    <t>Il14H_ERS3120552</t>
+  </si>
+  <si>
+    <t>Ki11_ISU</t>
+  </si>
+  <si>
+    <t>ERS3120554</t>
+  </si>
+  <si>
+    <t>Ki11</t>
+  </si>
+  <si>
+    <t>Ki11_ERS3120554</t>
+  </si>
+  <si>
+    <t>Ki3_ISU</t>
+  </si>
+  <si>
+    <t>ERS3120553</t>
+  </si>
+  <si>
+    <t>Ki3</t>
+  </si>
+  <si>
+    <t>Ki3_ERS3120553</t>
+  </si>
+  <si>
+    <t>Ky21_ISU</t>
+  </si>
+  <si>
+    <t>ERS3120555</t>
+  </si>
+  <si>
+    <t>Ky21</t>
+  </si>
+  <si>
+    <t>Ky21_ERS3120555</t>
+  </si>
+  <si>
+    <t>M162W_ISU</t>
+  </si>
+  <si>
+    <t>ERS3120556</t>
+  </si>
+  <si>
+    <t>M162W</t>
+  </si>
+  <si>
+    <t>M162W_ERS3120556</t>
+  </si>
+  <si>
+    <t>MS37W_ISU</t>
+  </si>
+  <si>
+    <t>ERS3120557</t>
+  </si>
+  <si>
+    <t>M37W_ERS3120557</t>
+  </si>
+  <si>
+    <t>Mo18W_ISU</t>
+  </si>
+  <si>
+    <t>ERS3120558</t>
+  </si>
+  <si>
+    <t>Mo18W</t>
+  </si>
+  <si>
+    <t>Mo18W_ERS3120558</t>
+  </si>
+  <si>
+    <t>Ms71_ISU</t>
+  </si>
+  <si>
+    <t>ERS3120559</t>
+  </si>
+  <si>
+    <t>MS71</t>
+  </si>
+  <si>
+    <t>MS71_ERS3120559</t>
+  </si>
+  <si>
+    <t>NC350_ISU</t>
+  </si>
+  <si>
+    <t>ERS3120560</t>
+  </si>
+  <si>
+    <t>NC350</t>
+  </si>
+  <si>
+    <t>NC350_ERS3120560</t>
+  </si>
+  <si>
+    <t>NC358_ISU</t>
+  </si>
+  <si>
+    <t>ERS3120561</t>
+  </si>
+  <si>
+    <t>NC358</t>
+  </si>
+  <si>
+    <t>NC358_ERS3120561</t>
+  </si>
+  <si>
+    <t>OH43_ISU</t>
+  </si>
+  <si>
+    <t>ERS3120562</t>
+  </si>
+  <si>
+    <t>Oh43</t>
+  </si>
+  <si>
+    <t>Oh43_ERS3120562</t>
+  </si>
+  <si>
+    <t>OH7B_ISU</t>
+  </si>
+  <si>
+    <t>ERS3120563</t>
+  </si>
+  <si>
+    <t>Oh7B</t>
+  </si>
+  <si>
+    <t>Oh7B_ERS3120563</t>
+  </si>
+  <si>
+    <t>P39_ISU</t>
+  </si>
+  <si>
+    <t>ERS3120564</t>
+  </si>
+  <si>
+    <t>P39</t>
+  </si>
+  <si>
+    <t>P39_ERS3120564</t>
+  </si>
+  <si>
+    <t>TX303_ISU</t>
+  </si>
+  <si>
+    <t>ERS3120565</t>
+  </si>
+  <si>
+    <t>Tx303</t>
+  </si>
+  <si>
+    <t>Tx303_ERS3120565</t>
+  </si>
+  <si>
+    <t>TZi8_ISU</t>
+  </si>
+  <si>
+    <t>ERS3120566</t>
+  </si>
+  <si>
+    <t>Tzi8</t>
+  </si>
+  <si>
+    <t>Tzi8_ERS3120566</t>
   </si>
 </sst>
 </file>
@@ -12689,10 +12986,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81CEFAF0-6CDB-9B4D-A8F5-B9D4D4BFDA96}">
-  <dimension ref="A1:D1499"/>
+  <dimension ref="A1:D1526"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1502" sqref="C1502"/>
+    <sheetView tabSelected="1" topLeftCell="A1500" workbookViewId="0">
+      <selection activeCell="D1507" sqref="D1507"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -33688,6 +33985,384 @@
         <v>4082</v>
       </c>
     </row>
+    <row r="1500" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1500" t="s">
+        <v>4094</v>
+      </c>
+      <c r="B1500" t="s">
+        <v>4043</v>
+      </c>
+      <c r="C1500" t="s">
+        <v>4095</v>
+      </c>
+      <c r="D1500" t="s">
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="1501" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1501" t="s">
+        <v>4097</v>
+      </c>
+      <c r="B1501" t="s">
+        <v>4099</v>
+      </c>
+      <c r="C1501" t="s">
+        <v>4098</v>
+      </c>
+      <c r="D1501" t="s">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="1502" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1502" t="s">
+        <v>4101</v>
+      </c>
+      <c r="B1502" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C1502" t="s">
+        <v>4102</v>
+      </c>
+      <c r="D1502" t="s">
+        <v>4103</v>
+      </c>
+    </row>
+    <row r="1503" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1503" t="s">
+        <v>4104</v>
+      </c>
+      <c r="B1503" t="s">
+        <v>2545</v>
+      </c>
+      <c r="C1503" t="s">
+        <v>4105</v>
+      </c>
+      <c r="D1503" t="s">
+        <v>4106</v>
+      </c>
+    </row>
+    <row r="1504" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1504" t="s">
+        <v>4107</v>
+      </c>
+      <c r="B1504" t="s">
+        <v>2994</v>
+      </c>
+      <c r="C1504" t="s">
+        <v>4108</v>
+      </c>
+      <c r="D1504" t="s">
+        <v>4109</v>
+      </c>
+    </row>
+    <row r="1505" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1505" t="s">
+        <v>4110</v>
+      </c>
+      <c r="B1505" t="s">
+        <v>4112</v>
+      </c>
+      <c r="C1505" t="s">
+        <v>4111</v>
+      </c>
+      <c r="D1505" t="s">
+        <v>4113</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1506" t="s">
+        <v>4114</v>
+      </c>
+      <c r="B1506" t="s">
+        <v>4116</v>
+      </c>
+      <c r="C1506" t="s">
+        <v>4115</v>
+      </c>
+      <c r="D1506" t="s">
+        <v>4117</v>
+      </c>
+    </row>
+    <row r="1507" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1507" t="s">
+        <v>4118</v>
+      </c>
+      <c r="B1507" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C1507" t="s">
+        <v>4119</v>
+      </c>
+      <c r="D1507" t="s">
+        <v>4120</v>
+      </c>
+    </row>
+    <row r="1508" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1508" t="s">
+        <v>4121</v>
+      </c>
+      <c r="B1508" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C1508" t="s">
+        <v>4122</v>
+      </c>
+      <c r="D1508" t="s">
+        <v>4123</v>
+      </c>
+    </row>
+    <row r="1509" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1509" t="s">
+        <v>4124</v>
+      </c>
+      <c r="B1509" t="s">
+        <v>2524</v>
+      </c>
+      <c r="C1509" t="s">
+        <v>4125</v>
+      </c>
+      <c r="D1509" t="s">
+        <v>4126</v>
+      </c>
+    </row>
+    <row r="1510" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1510" t="s">
+        <v>4127</v>
+      </c>
+      <c r="B1510" t="s">
+        <v>3520</v>
+      </c>
+      <c r="C1510" t="s">
+        <v>4128</v>
+      </c>
+      <c r="D1510" t="s">
+        <v>4129</v>
+      </c>
+    </row>
+    <row r="1511" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1511" t="s">
+        <v>4130</v>
+      </c>
+      <c r="B1511" t="s">
+        <v>4132</v>
+      </c>
+      <c r="C1511" t="s">
+        <v>4131</v>
+      </c>
+      <c r="D1511" t="s">
+        <v>4133</v>
+      </c>
+    </row>
+    <row r="1512" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1512" t="s">
+        <v>4134</v>
+      </c>
+      <c r="B1512" t="s">
+        <v>4136</v>
+      </c>
+      <c r="C1512" t="s">
+        <v>4135</v>
+      </c>
+      <c r="D1512" t="s">
+        <v>4137</v>
+      </c>
+    </row>
+    <row r="1513" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1513" t="s">
+        <v>4138</v>
+      </c>
+      <c r="B1513" t="s">
+        <v>4140</v>
+      </c>
+      <c r="C1513" t="s">
+        <v>4139</v>
+      </c>
+      <c r="D1513" t="s">
+        <v>4141</v>
+      </c>
+    </row>
+    <row r="1514" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1514" t="s">
+        <v>4142</v>
+      </c>
+      <c r="B1514" t="s">
+        <v>4144</v>
+      </c>
+      <c r="C1514" t="s">
+        <v>4143</v>
+      </c>
+      <c r="D1514" t="s">
+        <v>4145</v>
+      </c>
+    </row>
+    <row r="1515" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1515" t="s">
+        <v>4146</v>
+      </c>
+      <c r="B1515" t="s">
+        <v>4148</v>
+      </c>
+      <c r="C1515" t="s">
+        <v>4147</v>
+      </c>
+      <c r="D1515" t="s">
+        <v>4149</v>
+      </c>
+    </row>
+    <row r="1516" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1516" t="s">
+        <v>4150</v>
+      </c>
+      <c r="B1516" t="s">
+        <v>4152</v>
+      </c>
+      <c r="C1516" t="s">
+        <v>4151</v>
+      </c>
+      <c r="D1516" t="s">
+        <v>4153</v>
+      </c>
+    </row>
+    <row r="1517" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1517" t="s">
+        <v>4154</v>
+      </c>
+      <c r="B1517" t="s">
+        <v>2548</v>
+      </c>
+      <c r="C1517" t="s">
+        <v>4155</v>
+      </c>
+      <c r="D1517" t="s">
+        <v>4156</v>
+      </c>
+    </row>
+    <row r="1518" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1518" t="s">
+        <v>4157</v>
+      </c>
+      <c r="B1518" t="s">
+        <v>4159</v>
+      </c>
+      <c r="C1518" t="s">
+        <v>4158</v>
+      </c>
+      <c r="D1518" t="s">
+        <v>4160</v>
+      </c>
+    </row>
+    <row r="1519" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1519" t="s">
+        <v>4161</v>
+      </c>
+      <c r="B1519" t="s">
+        <v>4163</v>
+      </c>
+      <c r="C1519" t="s">
+        <v>4162</v>
+      </c>
+      <c r="D1519" t="s">
+        <v>4164</v>
+      </c>
+    </row>
+    <row r="1520" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1520" t="s">
+        <v>4165</v>
+      </c>
+      <c r="B1520" t="s">
+        <v>4167</v>
+      </c>
+      <c r="C1520" t="s">
+        <v>4166</v>
+      </c>
+      <c r="D1520" t="s">
+        <v>4168</v>
+      </c>
+    </row>
+    <row r="1521" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1521" t="s">
+        <v>4169</v>
+      </c>
+      <c r="B1521" t="s">
+        <v>4171</v>
+      </c>
+      <c r="C1521" t="s">
+        <v>4170</v>
+      </c>
+      <c r="D1521" t="s">
+        <v>4172</v>
+      </c>
+    </row>
+    <row r="1522" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1522" t="s">
+        <v>4173</v>
+      </c>
+      <c r="B1522" t="s">
+        <v>4175</v>
+      </c>
+      <c r="C1522" t="s">
+        <v>4174</v>
+      </c>
+      <c r="D1522" t="s">
+        <v>4176</v>
+      </c>
+    </row>
+    <row r="1523" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1523" t="s">
+        <v>4177</v>
+      </c>
+      <c r="B1523" t="s">
+        <v>4179</v>
+      </c>
+      <c r="C1523" t="s">
+        <v>4178</v>
+      </c>
+      <c r="D1523" t="s">
+        <v>4180</v>
+      </c>
+    </row>
+    <row r="1524" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1524" t="s">
+        <v>4181</v>
+      </c>
+      <c r="B1524" t="s">
+        <v>4183</v>
+      </c>
+      <c r="C1524" t="s">
+        <v>4182</v>
+      </c>
+      <c r="D1524" t="s">
+        <v>4184</v>
+      </c>
+    </row>
+    <row r="1525" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1525" t="s">
+        <v>4185</v>
+      </c>
+      <c r="B1525" t="s">
+        <v>4187</v>
+      </c>
+      <c r="C1525" t="s">
+        <v>4186</v>
+      </c>
+      <c r="D1525" t="s">
+        <v>4188</v>
+      </c>
+    </row>
+    <row r="1526" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1526" t="s">
+        <v>4189</v>
+      </c>
+      <c r="B1526" t="s">
+        <v>4191</v>
+      </c>
+      <c r="C1526" t="s">
+        <v>4190</v>
+      </c>
+      <c r="D1526" t="s">
+        <v>4192</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
